--- a/bank_account_transfer/xlsx_template/xlsx_report_bank_account_transfer.xlsx
+++ b/bank_account_transfer/xlsx_template/xlsx_report_bank_account_transfer.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">Bank Account Transfer</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t xml:space="preserve">To Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deduct From</t>
   </si>
   <si>
     <t xml:space="preserve">Fee Account</t>
@@ -258,7 +261,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -298,28 +301,31 @@
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
